--- a/DATASALUD/Glosario Atenciones Urgencias.xlsx
+++ b/DATASALUD/Glosario Atenciones Urgencias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinamario/Comunicaciones REDD Dropbox/Diseño DATA's/DATASALUD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATASALUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF9B734-3B43-414F-A58F-71E74A5A9601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD30184C-9ADE-4024-8167-B2E28501BDB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="940" windowWidth="27640" windowHeight="16020" xr2:uid="{22D09BD1-0774-E740-BBA3-B9DC28E0D60E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22D09BD1-0774-E740-BBA3-B9DC28E0D60E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E709ED0-35A0-3C4E-A24A-47E2A8B979A7}" name="Tabla1" displayName="Tabla1" ref="B3:D33" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E709ED0-35A0-3C4E-A24A-47E2A8B979A7}" name="Glosario_Urgencia" displayName="Glosario_Urgencia" ref="B3:D33" totalsRowShown="0">
   <autoFilter ref="B3:D33" xr:uid="{3EAB2BC5-927A-4C40-B88F-3A610B4FBC98}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BF0185F8-4EF4-F542-B8CE-511D87BDE31C}" name="Concepto médico" dataDxfId="0"/>
@@ -579,18 +579,18 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -598,7 +598,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -609,22 +609,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
@@ -632,7 +632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -640,7 +640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
@@ -648,7 +648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
@@ -656,7 +656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
@@ -664,12 +664,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
@@ -677,7 +677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
@@ -685,12 +685,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
@@ -698,7 +698,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -709,7 +709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
@@ -717,7 +717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
@@ -725,17 +725,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
@@ -743,12 +743,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
@@ -756,47 +756,47 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
